--- a/Metabolites/HPLC/Data/information_HPLC.xlsx
+++ b/Metabolites/HPLC/Data/information_HPLC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan_Plaque" sheetId="1" state="visible" r:id="rId3"/>
@@ -336,7 +336,7 @@
     <t xml:space="preserve">STD1-625-2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Manip</t>
+    <t xml:space="preserve">Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -2611,7 +2611,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2619,7 +2619,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29986,8 +29986,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Metabolites/HPLC/Data/information_HPLC.xlsx
+++ b/Metabolites/HPLC/Data/information_HPLC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Plaque" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="239">
   <si>
     <t xml:space="preserve">Cette feuille décrit les informations du plan de plaque. Elle n'est pas utilisée pour les analyses, mais est utile à l'expérimentateur pour décrire l'organisation des échantillons dans la plaque.</t>
   </si>
@@ -159,568 +159,487 @@
     <t xml:space="preserve">mM</t>
   </si>
   <si>
+    <t xml:space="preserve">STD1_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD1_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD1_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD1_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD1_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD2_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butyrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD2_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD2_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD2_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD2_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_06</t>
+  </si>
+  <si>
     <t xml:space="preserve">File</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formate</t>
+    <t xml:space="preserve">Path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc1.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc1.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Acetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lactate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-1-2</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B3.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-1-3</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B3.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B4.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.5-1</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B4.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B5.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.5-2</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B5.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B6.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.5-3</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B6.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B7.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.25-1</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B8.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.25-2</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B8.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B9.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD1-0.25-3</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B9.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">B10.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD2-1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetone</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B10.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C7.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">D2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Butanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butyrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-1-1</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D8.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D9.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D10.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E5.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc6.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F3.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F4.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_100_water</t>
   </si>
   <si>
     <t xml:space="preserve">B2.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-1-1</t>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B2.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B3.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B4.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc7.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_50_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B5.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B6.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B7.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_25_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B8.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B8.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B9.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B9.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B10.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc8.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc8.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_12_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C2.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C3.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C4.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_06_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C5.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C6.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C7.2.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blanc9.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc9.lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_100_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">D2.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc1.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc1.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B8.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B9.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B10.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.125-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.125-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.125-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.06-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.06-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD1-0.06-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.5-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.5-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.25-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D8.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.25-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D9.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.25-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D10.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D10.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.125-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.125-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.125-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.06-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E5.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.06-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD2-0.06-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc6.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F3.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F4.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B2.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B3.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B4.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc7.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B5.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.5-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B6.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.5-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B7.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.25-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B8.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B8.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.25-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B9.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B9.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.25-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B10.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc8.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc8.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.125-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C2.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.125-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C3.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.125-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C4.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.06-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C5.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.06-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C6.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-water-0.06-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C7.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLANC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blanc9.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc9.lcd</t>
-  </si>
-  <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D2.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-1-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D3.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D3.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-1-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D4.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D4.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.5-1</t>
+    <t xml:space="preserve">STD12_50_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">D5.2.lcd</t>
@@ -729,18 +648,12 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D5.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.5-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D6.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D6.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.5-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D7.2.lcd</t>
   </si>
   <si>
@@ -756,7 +669,7 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc10.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.25-1</t>
+    <t xml:space="preserve">STD12_25_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">D8.2.lcd</t>
@@ -765,25 +678,19 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D8.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.25-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D9.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D9.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.25-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D10.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D10.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.125-1</t>
+    <t xml:space="preserve">STD12_12_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">E2.2.lcd</t>
@@ -792,18 +699,12 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E2.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.125-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">E3.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E3.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.125-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">E4.2.lcd</t>
   </si>
   <si>
@@ -819,7 +720,7 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc11.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.06-1</t>
+    <t xml:space="preserve">STD12_06_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">E5.2.lcd</t>
@@ -828,16 +729,10 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E5.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12-GS2-0.06-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">E6.2.lcd</t>
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\E6.2.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12-GS2-0.06-3</t>
   </si>
   <si>
     <t xml:space="preserve">E7.2.lcd</t>
@@ -853,7 +748,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,26 +816,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1007,80 +894,84 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3402,3718 +3293,3778 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C3" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="C4" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>27.775</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C7" s="14" t="n">
+        <f aca="false">C2/2</f>
+        <v>25</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <f aca="false">C3/2</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <f aca="false">C4/2</f>
+        <v>25</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C10" s="14" t="n">
+        <f aca="false">C5/2</f>
+        <v>171.25</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="C11" s="14" t="n">
+        <f aca="false">C6/2</f>
+        <v>13.8875</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <f aca="false">C7/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <f aca="false">C8/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="C14" s="14" t="n">
+        <f aca="false">C9/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <f aca="false">C10/2</f>
+        <v>85.625</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <f aca="false">C11/2</f>
+        <v>6.94375</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C17" s="14" t="n">
+        <f aca="false">C12/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <f aca="false">C13/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <f aca="false">C14/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <f aca="false">C15/2</f>
+        <v>42.8125</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C21" s="14" t="n">
+        <f aca="false">C16/2</f>
+        <v>3.471875</v>
+      </c>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14" t="n">
+        <f aca="false">C17/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14" t="n">
+        <f aca="false">C18/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="14" t="n">
+        <f aca="false">C19/2</f>
+        <v>3.125</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="14" t="n">
+        <f aca="false">C20/2</f>
+        <v>21.40625</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="C26" s="14" t="n">
+        <f aca="false">C21/2</f>
+        <v>1.7359375</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="13" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="13" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="13" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="13" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="13" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="13" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="C44" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="14" t="n">
+        <v>27.775</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C50" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="C52" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="14" t="n">
+        <v>171.25</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="14" t="n">
+        <v>13.8875</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C58" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C60" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="14" t="n">
+        <v>85.625</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="14" t="n">
+        <v>6.94375</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C67" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="14" t="n">
+        <v>42.8125</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C70" s="14" t="n">
+        <v>3.471875</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C77" s="14" t="n">
+        <v>21.40625</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C78" s="14" t="n">
+        <v>1.7359375</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="13" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="C79" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="13" t="n">
-        <f aca="false">C12/2</f>
-        <v>25</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C80" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="13" t="n">
-        <f aca="false">C13/2</f>
-        <v>25</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="13" t="n">
-        <f aca="false">C14/2</f>
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <f aca="false">C15/2</f>
-        <v>171.25</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <f aca="false">C16/2</f>
-        <v>13.8875</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="13" t="n">
-        <v>171.25</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="13" t="n">
-        <v>13.8875</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13" t="n">
-        <v>171.25</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>13.8875</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="15" t="n">
-        <f aca="false">C27/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="15" t="n">
-        <f aca="false">C28/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="15" t="n">
-        <f aca="false">C29/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="15" t="n">
-        <f aca="false">C30/2</f>
-        <v>85.625</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="15" t="n">
-        <f aca="false">C31/2</f>
-        <v>6.94375</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="15" t="n">
-        <v>85.625</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="15" t="n">
-        <v>6.94375</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="15" t="n">
-        <v>85.625</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="13" t="n">
-        <v>6.94375</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="13"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="13"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="13"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="13"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="13"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="13"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="13"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="13"/>
+      <c r="C81" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="13"/>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="13"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="13"/>
+      <c r="C84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="13"/>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="13"/>
+      <c r="C86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="13"/>
+      <c r="C87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="13"/>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="13"/>
+      <c r="C89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="13"/>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="13"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="13"/>
+      <c r="C92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="13"/>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="13"/>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="13"/>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="13"/>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="13"/>
+      <c r="C97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="13"/>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="13"/>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="13"/>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="13"/>
+      <c r="C101" s="14"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="13"/>
+      <c r="C102" s="14"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="13"/>
+      <c r="C103" s="14"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="13"/>
+      <c r="C104" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="13"/>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="13"/>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="13"/>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="13"/>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="13"/>
+      <c r="C109" s="14"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="13"/>
+      <c r="C110" s="14"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="13"/>
+      <c r="C111" s="14"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="13"/>
+      <c r="C112" s="14"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="13"/>
+      <c r="C113" s="14"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="13"/>
+      <c r="C114" s="14"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="13"/>
+      <c r="C115" s="14"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="13"/>
+      <c r="C116" s="14"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="13"/>
+      <c r="C117" s="14"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="13"/>
+      <c r="C118" s="14"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="13"/>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="13"/>
+      <c r="C120" s="14"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="13"/>
+      <c r="C121" s="14"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="13"/>
+      <c r="C122" s="14"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="13"/>
+      <c r="C123" s="14"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="13"/>
+      <c r="C124" s="14"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="13"/>
+      <c r="C125" s="14"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="13"/>
+      <c r="C126" s="14"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="13"/>
+      <c r="C127" s="14"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="13"/>
+      <c r="C128" s="14"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="13"/>
+      <c r="C129" s="14"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="13"/>
+      <c r="C130" s="14"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="13"/>
+      <c r="C131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="13"/>
+      <c r="C132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C133" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D135" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="13"/>
+      <c r="C136" s="14"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="13"/>
+      <c r="C137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C138" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D138" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C139" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C140" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C141" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D141" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C142" s="13" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D142" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D145" s="12" t="s">
-        <v>75</v>
-      </c>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="13"/>
+      <c r="C146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C148" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D148" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C149" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D150" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C151" s="13" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D151" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C152" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D152" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D154" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="13"/>
+      <c r="C155" s="14"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="13"/>
+      <c r="C156" s="14"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="13"/>
+      <c r="C157" s="14"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="13"/>
+      <c r="C158" s="14"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="13"/>
+      <c r="C159" s="14"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="13"/>
+      <c r="C160" s="14"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="13"/>
+      <c r="C161" s="14"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="13"/>
+      <c r="C162" s="14"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="13"/>
+      <c r="C163" s="14"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="13"/>
+      <c r="C164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="13"/>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="13"/>
+      <c r="C166" s="14"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="13"/>
+      <c r="C167" s="14"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="13"/>
+      <c r="C168" s="14"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="13"/>
+      <c r="C169" s="14"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="13"/>
+      <c r="C170" s="14"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="13"/>
+      <c r="C171" s="14"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="13"/>
+      <c r="C172" s="14"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="13"/>
+      <c r="C173" s="14"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="13"/>
+      <c r="C174" s="14"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="13"/>
+      <c r="C175" s="14"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="13"/>
+      <c r="C176" s="14"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="13"/>
+      <c r="C177" s="14"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="13"/>
+      <c r="C178" s="14"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="13"/>
+      <c r="C179" s="14"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="13"/>
+      <c r="C180" s="14"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="13"/>
+      <c r="C181" s="14"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="13"/>
+      <c r="C182" s="14"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="13"/>
+      <c r="C183" s="14"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="13"/>
+      <c r="C184" s="14"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="13"/>
+      <c r="C185" s="14"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="13"/>
+      <c r="C186" s="14"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="13"/>
+      <c r="C187" s="14"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="13"/>
+      <c r="C188" s="14"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="13"/>
+      <c r="C189" s="14"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="13"/>
+      <c r="C190" s="14"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="13"/>
+      <c r="C191" s="14"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="13"/>
+      <c r="C192" s="14"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="13"/>
+      <c r="C193" s="14"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="13"/>
+      <c r="C194" s="14"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="13"/>
+      <c r="C195" s="14"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="13"/>
+      <c r="C196" s="14"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="13"/>
+      <c r="C197" s="14"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="13"/>
+      <c r="C198" s="14"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="13"/>
+      <c r="C199" s="14"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="13"/>
+      <c r="C200" s="14"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="13"/>
+      <c r="C201" s="14"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="13"/>
+      <c r="C202" s="14"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="13"/>
+      <c r="C203" s="14"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="13"/>
+      <c r="C204" s="14"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="13"/>
+      <c r="C205" s="14"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="13"/>
+      <c r="C206" s="14"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="13"/>
+      <c r="C207" s="14"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="13"/>
+      <c r="C208" s="14"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="13"/>
+      <c r="C209" s="14"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="13"/>
+      <c r="C210" s="14"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="13"/>
+      <c r="C211" s="14"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="13"/>
+      <c r="C212" s="14"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="13"/>
+      <c r="C213" s="14"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="13"/>
+      <c r="C214" s="14"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="13"/>
+      <c r="C215" s="14"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="13"/>
+      <c r="C216" s="14"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="13"/>
+      <c r="C217" s="14"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="13"/>
+      <c r="C218" s="14"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="13"/>
+      <c r="C219" s="14"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="13"/>
+      <c r="C220" s="14"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="13"/>
+      <c r="C221" s="14"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="13"/>
+      <c r="C222" s="14"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="13"/>
+      <c r="C223" s="14"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="13"/>
+      <c r="C224" s="14"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="13"/>
+      <c r="C225" s="14"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="13"/>
+      <c r="C226" s="14"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="13"/>
+      <c r="C227" s="14"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="13"/>
+      <c r="C228" s="14"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="13"/>
+      <c r="C229" s="14"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="13"/>
+      <c r="C230" s="14"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="13"/>
+      <c r="C231" s="14"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="13"/>
+      <c r="C232" s="14"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="13"/>
+      <c r="C233" s="14"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="13"/>
+      <c r="C234" s="14"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="13"/>
+      <c r="C235" s="14"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="13"/>
+      <c r="C236" s="14"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="13"/>
+      <c r="C237" s="14"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="13"/>
+      <c r="C238" s="14"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="13"/>
+      <c r="C239" s="14"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="13"/>
+      <c r="C240" s="14"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="13"/>
+      <c r="C241" s="14"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="13"/>
+      <c r="C242" s="14"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="13"/>
+      <c r="C243" s="14"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="13"/>
+      <c r="C244" s="14"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="13"/>
+      <c r="C245" s="14"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="13"/>
+      <c r="C246" s="14"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="13"/>
+      <c r="C247" s="14"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="13"/>
+      <c r="C248" s="14"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="13"/>
+      <c r="C249" s="14"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="13"/>
+      <c r="C250" s="14"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="13"/>
+      <c r="C251" s="14"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="13"/>
+      <c r="C252" s="14"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="13"/>
+      <c r="C253" s="14"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="13"/>
+      <c r="C254" s="14"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="13"/>
+      <c r="C255" s="14"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="13"/>
+      <c r="C256" s="14"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="13"/>
+      <c r="C257" s="14"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="13"/>
+      <c r="C258" s="14"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="13"/>
+      <c r="C259" s="14"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="13"/>
+      <c r="C260" s="14"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="13"/>
+      <c r="C261" s="14"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="13"/>
+      <c r="C262" s="14"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="13"/>
+      <c r="C263" s="14"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="13"/>
+      <c r="C264" s="14"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="13"/>
+      <c r="C265" s="14"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="13"/>
+      <c r="C266" s="14"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="13"/>
+      <c r="C267" s="14"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="13"/>
+      <c r="C268" s="14"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="13"/>
+      <c r="C269" s="14"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="13"/>
+      <c r="C270" s="14"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="13"/>
+      <c r="C271" s="14"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="13"/>
+      <c r="C272" s="14"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="13"/>
+      <c r="C273" s="14"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="13"/>
+      <c r="C274" s="14"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="13"/>
+      <c r="C275" s="14"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="13"/>
+      <c r="C276" s="14"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="13"/>
+      <c r="C277" s="14"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="13"/>
+      <c r="C278" s="14"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="13"/>
+      <c r="C279" s="14"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="13"/>
+      <c r="C280" s="14"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="13"/>
+      <c r="C281" s="14"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="13"/>
+      <c r="C282" s="14"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="13"/>
+      <c r="C283" s="14"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="13"/>
+      <c r="C284" s="14"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="13"/>
+      <c r="C285" s="14"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="13"/>
+      <c r="C286" s="14"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="13"/>
+      <c r="C287" s="14"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="13"/>
+      <c r="C288" s="14"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="13"/>
+      <c r="C289" s="14"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="13"/>
+      <c r="C290" s="14"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="13"/>
+      <c r="C291" s="14"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="13"/>
+      <c r="C292" s="14"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="13"/>
+      <c r="C293" s="14"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="13"/>
+      <c r="C294" s="14"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="13"/>
+      <c r="C295" s="14"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="13"/>
+      <c r="C296" s="14"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="13"/>
+      <c r="C297" s="14"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="13"/>
+      <c r="C298" s="14"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="13"/>
+      <c r="C299" s="14"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="13"/>
+      <c r="C300" s="14"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="13"/>
+      <c r="C301" s="14"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="13"/>
+      <c r="C302" s="14"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="13"/>
+      <c r="C303" s="14"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="13"/>
+      <c r="C304" s="14"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="13"/>
+      <c r="C305" s="14"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="13"/>
+      <c r="C306" s="14"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="13"/>
+      <c r="C307" s="14"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="13"/>
+      <c r="C308" s="14"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="13"/>
+      <c r="C309" s="14"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="13"/>
+      <c r="C310" s="14"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="13"/>
+      <c r="C311" s="14"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="13"/>
+      <c r="C312" s="14"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="13"/>
+      <c r="C313" s="14"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="13"/>
+      <c r="C314" s="14"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="13"/>
+      <c r="C315" s="14"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="13"/>
+      <c r="C316" s="14"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="13"/>
+      <c r="C317" s="14"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="13"/>
+      <c r="C318" s="14"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="13"/>
+      <c r="C319" s="14"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="13"/>
+      <c r="C320" s="14"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="13"/>
+      <c r="C321" s="14"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="13"/>
+      <c r="C322" s="14"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="13"/>
+      <c r="C323" s="14"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="13"/>
+      <c r="C324" s="14"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="13"/>
+      <c r="C325" s="14"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="13"/>
+      <c r="C326" s="14"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="13"/>
+      <c r="C327" s="14"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="13"/>
+      <c r="C328" s="14"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="13"/>
+      <c r="C329" s="14"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="13"/>
+      <c r="C330" s="14"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="13"/>
+      <c r="C331" s="14"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="13"/>
+      <c r="C332" s="14"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="13"/>
+      <c r="C333" s="14"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="13"/>
+      <c r="C334" s="14"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="13"/>
+      <c r="C335" s="14"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="13"/>
+      <c r="C336" s="14"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="13"/>
+      <c r="C337" s="14"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="13"/>
+      <c r="C338" s="14"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="13"/>
+      <c r="C339" s="14"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="13"/>
+      <c r="C340" s="14"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="13"/>
+      <c r="C341" s="14"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="13"/>
+      <c r="C342" s="14"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="13"/>
+      <c r="C343" s="14"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="13"/>
+      <c r="C344" s="14"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="13"/>
+      <c r="C345" s="14"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="13"/>
+      <c r="C346" s="14"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="13"/>
+      <c r="C347" s="14"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="13"/>
+      <c r="C348" s="14"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="13"/>
+      <c r="C349" s="14"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="13"/>
+      <c r="C350" s="14"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="13"/>
+      <c r="C351" s="14"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="13"/>
+      <c r="C352" s="14"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="13"/>
+      <c r="C353" s="14"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="13"/>
+      <c r="C354" s="14"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="13"/>
+      <c r="C355" s="14"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="13"/>
+      <c r="C356" s="14"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="13"/>
+      <c r="C357" s="14"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="13"/>
+      <c r="C358" s="14"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="13"/>
+      <c r="C359" s="14"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="13"/>
+      <c r="C360" s="14"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="13"/>
+      <c r="C361" s="14"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="13"/>
+      <c r="C362" s="14"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="13"/>
+      <c r="C363" s="14"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="13"/>
+      <c r="C364" s="14"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="13"/>
+      <c r="C365" s="14"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="13"/>
+      <c r="C366" s="14"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="13"/>
+      <c r="C367" s="14"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="13"/>
+      <c r="C368" s="14"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="13"/>
+      <c r="C369" s="14"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="13"/>
+      <c r="C370" s="14"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="13"/>
+      <c r="C371" s="14"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="13"/>
+      <c r="C372" s="14"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="13"/>
+      <c r="C373" s="14"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="13"/>
+      <c r="C374" s="14"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="13"/>
+      <c r="C375" s="14"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="13"/>
+      <c r="C376" s="14"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="13"/>
+      <c r="C377" s="14"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="13"/>
+      <c r="C378" s="14"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="13"/>
+      <c r="C379" s="14"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="13"/>
+      <c r="C380" s="14"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="13"/>
+      <c r="C381" s="14"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="13"/>
+      <c r="C382" s="14"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="13"/>
+      <c r="C383" s="14"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="13"/>
+      <c r="C384" s="14"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="13"/>
+      <c r="C385" s="14"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="13"/>
+      <c r="C386" s="14"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="13"/>
+      <c r="C387" s="14"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="13"/>
+      <c r="C388" s="14"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="13"/>
+      <c r="C389" s="14"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="13"/>
+      <c r="C390" s="14"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="13"/>
+      <c r="C391" s="14"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="13"/>
+      <c r="C392" s="14"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="13"/>
+      <c r="C393" s="14"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="13"/>
+      <c r="C394" s="14"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="13"/>
+      <c r="C395" s="14"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="13"/>
+      <c r="C396" s="14"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="13"/>
+      <c r="C397" s="14"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="13"/>
+      <c r="C398" s="14"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="13"/>
+      <c r="C399" s="14"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="13"/>
+      <c r="C400" s="14"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="13"/>
+      <c r="C401" s="14"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="13"/>
+      <c r="C402" s="14"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="13"/>
+      <c r="C403" s="14"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="13"/>
+      <c r="C404" s="14"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="13"/>
+      <c r="C405" s="14"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="13"/>
+      <c r="C406" s="14"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="13"/>
+      <c r="C407" s="14"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="13"/>
+      <c r="C408" s="14"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="13"/>
+      <c r="C409" s="14"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="13"/>
+      <c r="C410" s="14"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="13"/>
+      <c r="C411" s="14"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="13"/>
+      <c r="C412" s="14"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="13"/>
+      <c r="C413" s="14"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="13"/>
+      <c r="C414" s="14"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="13"/>
+      <c r="C415" s="14"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="13"/>
+      <c r="C416" s="14"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="13"/>
+      <c r="C417" s="14"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="13"/>
+      <c r="C418" s="14"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="13"/>
+      <c r="C419" s="14"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="13"/>
+      <c r="C420" s="14"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="13"/>
+      <c r="C421" s="14"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="13"/>
+      <c r="C422" s="14"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="13"/>
+      <c r="C423" s="14"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="13"/>
+      <c r="C424" s="14"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="13"/>
+      <c r="C425" s="14"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="13"/>
+      <c r="C426" s="14"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="13"/>
+      <c r="C427" s="14"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="13"/>
+      <c r="C428" s="14"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="13"/>
+      <c r="C429" s="14"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="13"/>
+      <c r="C430" s="14"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="13"/>
+      <c r="C431" s="14"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="13"/>
+      <c r="C432" s="14"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="13"/>
+      <c r="C433" s="14"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="13"/>
+      <c r="C434" s="14"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="13"/>
+      <c r="C435" s="14"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="13"/>
+      <c r="C436" s="14"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="13"/>
+      <c r="C437" s="14"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="13"/>
+      <c r="C438" s="14"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="13"/>
+      <c r="C439" s="14"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="13"/>
+      <c r="C440" s="14"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="13"/>
+      <c r="C441" s="14"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="13"/>
+      <c r="C442" s="14"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="13"/>
+      <c r="C443" s="14"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="13"/>
+      <c r="C444" s="14"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="13"/>
+      <c r="C445" s="14"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="13"/>
+      <c r="C446" s="14"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="13"/>
+      <c r="C447" s="14"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="13"/>
+      <c r="C448" s="14"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="13"/>
+      <c r="C449" s="14"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="13"/>
+      <c r="C450" s="14"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="13"/>
+      <c r="C451" s="14"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="13"/>
+      <c r="C452" s="14"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="13"/>
+      <c r="C453" s="14"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="13"/>
+      <c r="C454" s="14"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="13"/>
+      <c r="C455" s="14"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="13"/>
+      <c r="C456" s="14"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="13"/>
+      <c r="C457" s="14"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="13"/>
+      <c r="C458" s="14"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="13"/>
+      <c r="C459" s="14"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="13"/>
+      <c r="C460" s="14"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="13"/>
+      <c r="C461" s="14"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="13"/>
+      <c r="C462" s="14"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="13"/>
+      <c r="C463" s="14"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="13"/>
+      <c r="C464" s="14"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="13"/>
+      <c r="C465" s="14"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="13"/>
+      <c r="C466" s="14"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="13"/>
+      <c r="C467" s="14"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="13"/>
+      <c r="C468" s="14"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="13"/>
+      <c r="C469" s="14"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="13"/>
+      <c r="C470" s="14"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="13"/>
+      <c r="C471" s="14"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="13"/>
+      <c r="C472" s="14"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="13"/>
+      <c r="C473" s="14"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="13"/>
+      <c r="C474" s="14"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="13"/>
+      <c r="C475" s="14"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="13"/>
+      <c r="C476" s="14"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="13"/>
+      <c r="C477" s="14"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="13"/>
+      <c r="C478" s="14"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="13"/>
+      <c r="C479" s="14"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="13"/>
+      <c r="C480" s="14"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="13"/>
+      <c r="C481" s="14"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="13"/>
+      <c r="C482" s="14"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="13"/>
+      <c r="C483" s="14"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="13"/>
+      <c r="C484" s="14"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="13"/>
+      <c r="C485" s="14"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="13"/>
+      <c r="C486" s="14"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="13"/>
+      <c r="C487" s="14"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="13"/>
+      <c r="C488" s="14"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="13"/>
+      <c r="C489" s="14"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="13"/>
+      <c r="C490" s="14"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="13"/>
+      <c r="C491" s="14"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="13"/>
+      <c r="C492" s="14"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="13"/>
+      <c r="C493" s="14"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="13"/>
+      <c r="C494" s="14"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="13"/>
+      <c r="C495" s="14"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="13"/>
+      <c r="C496" s="14"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="13"/>
+      <c r="C497" s="14"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="13"/>
+      <c r="C498" s="14"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="13"/>
+      <c r="C499" s="14"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="13"/>
+      <c r="C500" s="14"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="13"/>
+      <c r="C501" s="14"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="13"/>
+      <c r="C502" s="14"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="13"/>
+      <c r="C503" s="14"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="13"/>
+      <c r="C504" s="14"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="13"/>
+      <c r="C505" s="14"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="13"/>
+      <c r="C506" s="14"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="13"/>
+      <c r="C507" s="14"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="13"/>
+      <c r="C508" s="14"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="13"/>
+      <c r="C509" s="14"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="13"/>
+      <c r="C510" s="14"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="13"/>
+      <c r="C511" s="14"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="13"/>
+      <c r="C512" s="14"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="13"/>
+      <c r="C513" s="14"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="13"/>
+      <c r="C514" s="14"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="13"/>
+      <c r="C515" s="14"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="13"/>
+      <c r="C516" s="14"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="13"/>
+      <c r="C517" s="14"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="13"/>
+      <c r="C518" s="14"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="13"/>
+      <c r="C519" s="14"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="13"/>
+      <c r="C520" s="14"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="13"/>
+      <c r="C521" s="14"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="13"/>
+      <c r="C522" s="14"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="13"/>
+      <c r="C523" s="14"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="13"/>
+      <c r="C524" s="14"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="13"/>
+      <c r="C525" s="14"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="13"/>
+      <c r="C526" s="14"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="13"/>
+      <c r="C527" s="14"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="13"/>
+      <c r="C528" s="14"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="13"/>
+      <c r="C529" s="14"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="13"/>
+      <c r="C530" s="14"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="13"/>
+      <c r="C531" s="14"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="13"/>
+      <c r="C532" s="14"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="13"/>
+      <c r="C533" s="14"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="13"/>
+      <c r="C534" s="14"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="13"/>
+      <c r="C535" s="14"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="13"/>
+      <c r="C536" s="14"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="13"/>
+      <c r="C537" s="14"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="13"/>
+      <c r="C538" s="14"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="13"/>
+      <c r="C539" s="14"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="13"/>
+      <c r="C540" s="14"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="13"/>
+      <c r="C541" s="14"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="13"/>
+      <c r="C542" s="14"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="13"/>
+      <c r="C543" s="14"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="13"/>
+      <c r="C544" s="14"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="13"/>
+      <c r="C545" s="14"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="13"/>
+      <c r="C546" s="14"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="13"/>
+      <c r="C547" s="14"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="13"/>
+      <c r="C548" s="14"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="13"/>
+      <c r="C549" s="14"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="13"/>
+      <c r="C550" s="14"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="13"/>
+      <c r="C551" s="14"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="13"/>
+      <c r="C552" s="14"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="13"/>
+      <c r="C553" s="14"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="13"/>
+      <c r="C554" s="14"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="13"/>
+      <c r="C555" s="14"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="13"/>
+      <c r="C556" s="14"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="13"/>
+      <c r="C557" s="14"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="13"/>
+      <c r="C558" s="14"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="13"/>
+      <c r="C559" s="14"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="13"/>
+      <c r="C560" s="14"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="13"/>
+      <c r="C561" s="14"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="13"/>
+      <c r="C562" s="14"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="13"/>
+      <c r="C563" s="14"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="13"/>
+      <c r="C564" s="14"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="13"/>
+      <c r="C565" s="14"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="13"/>
+      <c r="C566" s="14"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="13"/>
+      <c r="C567" s="14"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="13"/>
+      <c r="C568" s="14"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="13"/>
+      <c r="C569" s="14"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="13"/>
+      <c r="C570" s="14"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="13"/>
+      <c r="C571" s="14"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="13"/>
+      <c r="C572" s="14"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="13"/>
+      <c r="C573" s="14"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="13"/>
+      <c r="C574" s="14"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="13"/>
+      <c r="C575" s="14"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="13"/>
+      <c r="C576" s="14"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="13"/>
+      <c r="C577" s="14"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="13"/>
+      <c r="C578" s="14"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="13"/>
+      <c r="C579" s="14"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="13"/>
+      <c r="C580" s="14"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="13"/>
+      <c r="C581" s="14"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="13"/>
+      <c r="C582" s="14"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="13"/>
+      <c r="C583" s="14"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="13"/>
+      <c r="C584" s="14"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="13"/>
+      <c r="C585" s="14"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="13"/>
+      <c r="C586" s="14"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="13"/>
+      <c r="C587" s="14"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="13"/>
+      <c r="C588" s="14"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="13"/>
+      <c r="C589" s="14"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="13"/>
+      <c r="C590" s="14"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="13"/>
+      <c r="C591" s="14"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="13"/>
+      <c r="C592" s="14"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="13"/>
+      <c r="C593" s="14"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="13"/>
+      <c r="C594" s="14"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="13"/>
+      <c r="C595" s="14"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="13"/>
+      <c r="C596" s="14"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="13"/>
+      <c r="C597" s="14"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="13"/>
+      <c r="C598" s="14"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="13"/>
+      <c r="C599" s="14"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="13"/>
+      <c r="C600" s="14"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="13"/>
+      <c r="C601" s="14"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="13"/>
+      <c r="C602" s="14"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="13"/>
+      <c r="C603" s="14"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="13"/>
+      <c r="C604" s="14"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="13"/>
+      <c r="C605" s="14"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="13"/>
+      <c r="C606" s="14"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="13"/>
+      <c r="C607" s="14"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="13"/>
+      <c r="C608" s="14"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="13"/>
+      <c r="C609" s="14"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="13"/>
+      <c r="C610" s="14"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="13"/>
+      <c r="C611" s="14"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="13"/>
+      <c r="C612" s="14"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="13"/>
+      <c r="C613" s="14"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="13"/>
+      <c r="C614" s="14"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="13"/>
+      <c r="C615" s="14"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="13"/>
+      <c r="C616" s="14"/>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="13"/>
+      <c r="C617" s="14"/>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="13"/>
+      <c r="C618" s="14"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="13"/>
+      <c r="C619" s="14"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="13"/>
+      <c r="C620" s="14"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="13"/>
+      <c r="C621" s="14"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="13"/>
+      <c r="C622" s="14"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="13"/>
+      <c r="C623" s="14"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="13"/>
+      <c r="C624" s="14"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="13"/>
+      <c r="C625" s="14"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="13"/>
+      <c r="C626" s="14"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="13"/>
+      <c r="C627" s="14"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="13"/>
+      <c r="C628" s="14"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="13"/>
+      <c r="C629" s="14"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="13"/>
+      <c r="C630" s="14"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="13"/>
+      <c r="C631" s="14"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="13"/>
+      <c r="C632" s="14"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="13"/>
+      <c r="C633" s="14"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="13"/>
+      <c r="C634" s="14"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="13"/>
+      <c r="C635" s="14"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="13"/>
+      <c r="C636" s="14"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="13"/>
+      <c r="C637" s="14"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="13"/>
+      <c r="C638" s="14"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="13"/>
+      <c r="C639" s="14"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="13"/>
+      <c r="C640" s="14"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="13"/>
+      <c r="C641" s="14"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="13"/>
+      <c r="C642" s="14"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="13"/>
+      <c r="C643" s="14"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="13"/>
+      <c r="C644" s="14"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="13"/>
+      <c r="C645" s="14"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="13"/>
+      <c r="C646" s="14"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="13"/>
+      <c r="C647" s="14"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="13"/>
+      <c r="C648" s="14"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="13"/>
+      <c r="C649" s="14"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="13"/>
+      <c r="C650" s="14"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="13"/>
+      <c r="C651" s="14"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="13"/>
+      <c r="C652" s="14"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="13"/>
+      <c r="C653" s="14"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="13"/>
+      <c r="C654" s="14"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="13"/>
+      <c r="C655" s="14"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="13"/>
+      <c r="C656" s="14"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="13"/>
+      <c r="C657" s="14"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="13"/>
+      <c r="C658" s="14"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="13"/>
+      <c r="C659" s="14"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="13"/>
+      <c r="C660" s="14"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="13"/>
+      <c r="C661" s="14"/>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="13"/>
+      <c r="C662" s="14"/>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="13"/>
+      <c r="C663" s="14"/>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="13"/>
+      <c r="C664" s="14"/>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="13"/>
+      <c r="C665" s="14"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="13"/>
+      <c r="C666" s="14"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="13"/>
+      <c r="C667" s="14"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="13"/>
+      <c r="C668" s="14"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="13"/>
+      <c r="C669" s="14"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="13"/>
+      <c r="C670" s="14"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="13"/>
+      <c r="C671" s="14"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="13"/>
+      <c r="C672" s="14"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="13"/>
+      <c r="C673" s="14"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="13"/>
+      <c r="C674" s="14"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="13"/>
+      <c r="C675" s="14"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="13"/>
+      <c r="C676" s="14"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="13"/>
+      <c r="C677" s="14"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="13"/>
+      <c r="C678" s="14"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="13"/>
+      <c r="C679" s="14"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="13"/>
+      <c r="C680" s="14"/>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="13"/>
+      <c r="C681" s="14"/>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="13"/>
+      <c r="C682" s="14"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="13"/>
+      <c r="C683" s="14"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="13"/>
+      <c r="C684" s="14"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="13"/>
+      <c r="C685" s="14"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="13"/>
+      <c r="C686" s="14"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="13"/>
+      <c r="C687" s="14"/>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="13"/>
+      <c r="C688" s="14"/>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="13"/>
+      <c r="C689" s="14"/>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="13"/>
+      <c r="C690" s="14"/>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="13"/>
+      <c r="C691" s="14"/>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="13"/>
+      <c r="C692" s="14"/>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="13"/>
+      <c r="C693" s="14"/>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="13"/>
+      <c r="C694" s="14"/>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="13"/>
+      <c r="C695" s="14"/>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="13"/>
+      <c r="C696" s="14"/>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="13"/>
+      <c r="C697" s="14"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="13"/>
+      <c r="C698" s="14"/>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="13"/>
+      <c r="C699" s="14"/>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="13"/>
+      <c r="C700" s="14"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="13"/>
+      <c r="C701" s="14"/>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="13"/>
+      <c r="C702" s="14"/>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="13"/>
+      <c r="C703" s="14"/>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="13"/>
+      <c r="C704" s="14"/>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="13"/>
+      <c r="C705" s="14"/>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="13"/>
+      <c r="C706" s="14"/>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="13"/>
+      <c r="C707" s="14"/>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="13"/>
+      <c r="C708" s="14"/>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="13"/>
+      <c r="C709" s="14"/>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="13"/>
+      <c r="C710" s="14"/>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="13"/>
+      <c r="C711" s="14"/>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="13"/>
+      <c r="C712" s="14"/>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="13"/>
+      <c r="C713" s="14"/>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="13"/>
+      <c r="C714" s="14"/>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="13"/>
+      <c r="C715" s="14"/>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="13"/>
+      <c r="C716" s="14"/>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="13"/>
+      <c r="C717" s="14"/>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="13"/>
+      <c r="C718" s="14"/>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="13"/>
+      <c r="C719" s="14"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="13"/>
+      <c r="C720" s="14"/>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="13"/>
+      <c r="C721" s="14"/>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="13"/>
+      <c r="C722" s="14"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="13"/>
+      <c r="C723" s="14"/>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="13"/>
+      <c r="C724" s="14"/>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="13"/>
+      <c r="C725" s="14"/>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="13"/>
+      <c r="C726" s="14"/>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="13"/>
+      <c r="C727" s="14"/>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="13"/>
+      <c r="C728" s="14"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="13"/>
+      <c r="C729" s="14"/>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="13"/>
+      <c r="C730" s="14"/>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="13"/>
+      <c r="C731" s="14"/>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="13"/>
+      <c r="C732" s="14"/>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="13"/>
+      <c r="C733" s="14"/>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="13"/>
+      <c r="C734" s="14"/>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="13"/>
+      <c r="C735" s="14"/>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="13"/>
+      <c r="C736" s="14"/>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="13"/>
+      <c r="C737" s="14"/>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="13"/>
+      <c r="C738" s="14"/>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="13"/>
+      <c r="C739" s="14"/>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="13"/>
+      <c r="C740" s="14"/>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="13"/>
+      <c r="C741" s="14"/>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="13"/>
+      <c r="C742" s="14"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="13"/>
+      <c r="C743" s="14"/>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="13"/>
+      <c r="C744" s="14"/>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="13"/>
+      <c r="C745" s="14"/>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="13"/>
+      <c r="C746" s="14"/>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="13"/>
+      <c r="C747" s="14"/>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="13"/>
+      <c r="C748" s="14"/>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="13"/>
+      <c r="C749" s="14"/>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="13"/>
+      <c r="C750" s="14"/>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="13"/>
+      <c r="C751" s="14"/>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="13"/>
+      <c r="C752" s="14"/>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="13"/>
+      <c r="C753" s="14"/>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="13"/>
+      <c r="C754" s="14"/>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="13"/>
+      <c r="C755" s="14"/>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="13"/>
+      <c r="C756" s="14"/>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="13"/>
+      <c r="C757" s="14"/>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="13"/>
+      <c r="C758" s="14"/>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="13"/>
+      <c r="C759" s="14"/>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="13"/>
+      <c r="C760" s="14"/>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="13"/>
+      <c r="C761" s="14"/>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="13"/>
+      <c r="C762" s="14"/>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="13"/>
+      <c r="C763" s="14"/>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="13"/>
+      <c r="C764" s="14"/>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="13"/>
+      <c r="C765" s="14"/>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="13"/>
+      <c r="C766" s="14"/>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="13"/>
+      <c r="C767" s="14"/>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="13"/>
+      <c r="C768" s="14"/>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="13"/>
+      <c r="C769" s="14"/>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="13"/>
+      <c r="C770" s="14"/>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="13"/>
+      <c r="C771" s="14"/>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="13"/>
+      <c r="C772" s="14"/>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="13"/>
+      <c r="C773" s="14"/>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="13"/>
+      <c r="C774" s="14"/>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="13"/>
+      <c r="C775" s="14"/>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="13"/>
+      <c r="C776" s="14"/>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="13"/>
+      <c r="C777" s="14"/>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="13"/>
+      <c r="C778" s="14"/>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="13"/>
+      <c r="C779" s="14"/>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="13"/>
+      <c r="C780" s="14"/>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="13"/>
+      <c r="C781" s="14"/>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="13"/>
+      <c r="C782" s="14"/>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="13"/>
+      <c r="C783" s="14"/>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="13"/>
+      <c r="C784" s="14"/>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="13"/>
+      <c r="C785" s="14"/>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="13"/>
+      <c r="C786" s="14"/>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="13"/>
+      <c r="C787" s="14"/>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="13"/>
+      <c r="C788" s="14"/>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="13"/>
+      <c r="C789" s="14"/>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="13"/>
+      <c r="C790" s="14"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="13"/>
+      <c r="C791" s="14"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="13"/>
+      <c r="C792" s="14"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="13"/>
+      <c r="C793" s="14"/>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="13"/>
+      <c r="C794" s="14"/>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="13"/>
+      <c r="C795" s="14"/>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="13"/>
+      <c r="C796" s="14"/>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="13"/>
+      <c r="C797" s="14"/>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="13"/>
+      <c r="C798" s="14"/>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="13"/>
+      <c r="C799" s="14"/>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="13"/>
+      <c r="C800" s="14"/>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="13"/>
+      <c r="C801" s="14"/>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="13"/>
+      <c r="C802" s="14"/>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="13"/>
+      <c r="C803" s="14"/>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="13"/>
+      <c r="C804" s="14"/>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="13"/>
+      <c r="C805" s="14"/>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="13"/>
+      <c r="C806" s="14"/>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="13"/>
+      <c r="C807" s="14"/>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="13"/>
+      <c r="C808" s="14"/>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="13"/>
+      <c r="C809" s="14"/>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="13"/>
+      <c r="C810" s="14"/>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="13"/>
+      <c r="C811" s="14"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="13"/>
+      <c r="C812" s="14"/>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="13"/>
+      <c r="C813" s="14"/>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="13"/>
+      <c r="C814" s="14"/>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="13"/>
+      <c r="C815" s="14"/>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="13"/>
+      <c r="C816" s="14"/>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="13"/>
+      <c r="C817" s="14"/>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="13"/>
+      <c r="C818" s="14"/>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="13"/>
+      <c r="C819" s="14"/>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="13"/>
+      <c r="C820" s="14"/>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="13"/>
+      <c r="C821" s="14"/>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="13"/>
+      <c r="C822" s="14"/>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="13"/>
+      <c r="C823" s="14"/>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="13"/>
+      <c r="C824" s="14"/>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="13"/>
+      <c r="C825" s="14"/>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="13"/>
+      <c r="C826" s="14"/>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="13"/>
+      <c r="C827" s="14"/>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="13"/>
+      <c r="C828" s="14"/>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="13"/>
+      <c r="C829" s="14"/>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="13"/>
+      <c r="C830" s="14"/>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="13"/>
+      <c r="C831" s="14"/>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="13"/>
+      <c r="C832" s="14"/>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="13"/>
+      <c r="C833" s="14"/>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="13"/>
+      <c r="C834" s="14"/>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="13"/>
+      <c r="C835" s="14"/>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="13"/>
+      <c r="C836" s="14"/>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="13"/>
+      <c r="C837" s="14"/>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="13"/>
+      <c r="C838" s="14"/>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="13"/>
+      <c r="C839" s="14"/>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="13"/>
+      <c r="C840" s="14"/>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="13"/>
+      <c r="C841" s="14"/>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="13"/>
+      <c r="C842" s="14"/>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="13"/>
+      <c r="C843" s="14"/>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="13"/>
+      <c r="C844" s="14"/>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="13"/>
+      <c r="C845" s="14"/>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="13"/>
+      <c r="C846" s="14"/>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="13"/>
+      <c r="C847" s="14"/>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="13"/>
+      <c r="C848" s="14"/>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="13"/>
+      <c r="C849" s="14"/>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="13"/>
+      <c r="C850" s="14"/>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="13"/>
+      <c r="C851" s="14"/>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="13"/>
+      <c r="C852" s="14"/>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="13"/>
+      <c r="C853" s="14"/>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="13"/>
+      <c r="C854" s="14"/>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="13"/>
+      <c r="C855" s="14"/>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="13"/>
+      <c r="C856" s="14"/>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="13"/>
+      <c r="C857" s="14"/>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="13"/>
+      <c r="C858" s="14"/>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="13"/>
+      <c r="C859" s="14"/>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="13"/>
+      <c r="C860" s="14"/>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="13"/>
+      <c r="C861" s="14"/>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="13"/>
+      <c r="C862" s="14"/>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="13"/>
+      <c r="C863" s="14"/>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="13"/>
+      <c r="C864" s="14"/>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="13"/>
+      <c r="C865" s="14"/>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="13"/>
+      <c r="C866" s="14"/>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="13"/>
+      <c r="C867" s="14"/>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="13"/>
+      <c r="C868" s="14"/>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="13"/>
+      <c r="C869" s="14"/>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="13"/>
+      <c r="C870" s="14"/>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="13"/>
+      <c r="C871" s="14"/>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="13"/>
+      <c r="C872" s="14"/>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="13"/>
+      <c r="C873" s="14"/>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="13"/>
+      <c r="C874" s="14"/>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="13"/>
+      <c r="C875" s="14"/>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="13"/>
+      <c r="C876" s="14"/>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="13"/>
+      <c r="C877" s="14"/>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="13"/>
+      <c r="C878" s="14"/>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="13"/>
+      <c r="C879" s="14"/>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="13"/>
+      <c r="C880" s="14"/>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="13"/>
+      <c r="C881" s="14"/>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="13"/>
+      <c r="C882" s="14"/>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="13"/>
+      <c r="C883" s="14"/>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="13"/>
+      <c r="C884" s="14"/>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="13"/>
+      <c r="C885" s="14"/>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="13"/>
+      <c r="C886" s="14"/>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="13"/>
+      <c r="C887" s="14"/>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="13"/>
+      <c r="C888" s="14"/>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="13"/>
+      <c r="C889" s="14"/>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="13"/>
+      <c r="C890" s="14"/>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="13"/>
+      <c r="C891" s="14"/>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="13"/>
+      <c r="C892" s="14"/>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="13"/>
+      <c r="C893" s="14"/>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="13"/>
+      <c r="C894" s="14"/>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="13"/>
+      <c r="C895" s="14"/>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="13"/>
+      <c r="C896" s="14"/>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="13"/>
+      <c r="C897" s="14"/>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="13"/>
+      <c r="C898" s="14"/>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="13"/>
+      <c r="C899" s="14"/>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="13"/>
+      <c r="C900" s="14"/>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="13"/>
+      <c r="C901" s="14"/>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="13"/>
+      <c r="C902" s="14"/>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="13"/>
+      <c r="C903" s="14"/>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="13"/>
+      <c r="C904" s="14"/>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="13"/>
+      <c r="C905" s="14"/>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="13"/>
+      <c r="C906" s="14"/>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="13"/>
+      <c r="C907" s="14"/>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="13"/>
+      <c r="C908" s="14"/>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="13"/>
+      <c r="C909" s="14"/>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="13"/>
+      <c r="C910" s="14"/>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="13"/>
+      <c r="C911" s="14"/>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="13"/>
+      <c r="C912" s="14"/>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="13"/>
+      <c r="C913" s="14"/>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="13"/>
+      <c r="C914" s="14"/>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="13"/>
+      <c r="C915" s="14"/>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="13"/>
+      <c r="C916" s="14"/>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="13"/>
+      <c r="C917" s="14"/>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="13"/>
+      <c r="C918" s="14"/>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="13"/>
+      <c r="C919" s="14"/>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="13"/>
+      <c r="C920" s="14"/>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="13"/>
+      <c r="C921" s="14"/>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="13"/>
+      <c r="C922" s="14"/>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="13"/>
+      <c r="C923" s="14"/>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="13"/>
+      <c r="C924" s="14"/>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="13"/>
+      <c r="C925" s="14"/>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="13"/>
+      <c r="C926" s="14"/>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="13"/>
+      <c r="C927" s="14"/>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="13"/>
+      <c r="C928" s="14"/>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="13"/>
+      <c r="C929" s="14"/>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="13"/>
+      <c r="C930" s="14"/>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="13"/>
+      <c r="C931" s="14"/>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="13"/>
+      <c r="C932" s="14"/>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="13"/>
+      <c r="C933" s="14"/>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="13"/>
+      <c r="C934" s="14"/>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="13"/>
+      <c r="C935" s="14"/>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="13"/>
+      <c r="C936" s="14"/>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="13"/>
+      <c r="C937" s="14"/>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="13"/>
+      <c r="C938" s="14"/>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="13"/>
+      <c r="C939" s="14"/>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="13"/>
+      <c r="C940" s="14"/>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="13"/>
+      <c r="C941" s="14"/>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="13"/>
+      <c r="C942" s="14"/>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="13"/>
+      <c r="C943" s="14"/>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="13"/>
+      <c r="C944" s="14"/>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="13"/>
+      <c r="C945" s="14"/>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="13"/>
+      <c r="C946" s="14"/>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="13"/>
+      <c r="C947" s="14"/>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="13"/>
+      <c r="C948" s="14"/>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="13"/>
+      <c r="C949" s="14"/>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="13"/>
+      <c r="C950" s="14"/>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="13"/>
+      <c r="C951" s="14"/>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="13"/>
+      <c r="C952" s="14"/>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="13"/>
+      <c r="C953" s="14"/>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="13"/>
+      <c r="C954" s="14"/>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="13"/>
+      <c r="C955" s="14"/>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="13"/>
+      <c r="C956" s="14"/>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="13"/>
+      <c r="C957" s="14"/>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="13"/>
+      <c r="C958" s="14"/>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="13"/>
+      <c r="C959" s="14"/>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="13"/>
+      <c r="C960" s="14"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="13"/>
+      <c r="C961" s="14"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="13"/>
+      <c r="C962" s="14"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="13"/>
+      <c r="C963" s="14"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="13"/>
+      <c r="C964" s="14"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="13"/>
+      <c r="C965" s="14"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="13"/>
+      <c r="C966" s="14"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="13"/>
+      <c r="C967" s="14"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="13"/>
+      <c r="C968" s="14"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="13"/>
+      <c r="C969" s="14"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="13"/>
+      <c r="C970" s="14"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="13"/>
+      <c r="C971" s="14"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="13"/>
+      <c r="C972" s="14"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="13"/>
+      <c r="C973" s="14"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="13"/>
+      <c r="C974" s="14"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="13"/>
+      <c r="C975" s="14"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="13"/>
+      <c r="C976" s="14"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="13"/>
+      <c r="C977" s="14"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="13"/>
+      <c r="C978" s="14"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="13"/>
+      <c r="C979" s="14"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="13"/>
+      <c r="C980" s="14"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="13"/>
+      <c r="C981" s="14"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="13"/>
+      <c r="C982" s="14"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="13"/>
+      <c r="C983" s="14"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="13"/>
+      <c r="C984" s="14"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="13"/>
+      <c r="C985" s="14"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="13"/>
+      <c r="C986" s="14"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="13"/>
+      <c r="C987" s="14"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="13"/>
+      <c r="C988" s="14"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="13"/>
+      <c r="C989" s="14"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="13"/>
+      <c r="C990" s="14"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="13"/>
+      <c r="C991" s="14"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="13"/>
+      <c r="C992" s="14"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="13"/>
+      <c r="C993" s="14"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="13"/>
+      <c r="C994" s="14"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="13"/>
+      <c r="C995" s="14"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="13"/>
+      <c r="C996" s="14"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="13"/>
+      <c r="C997" s="14"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="13"/>
+      <c r="C998" s="14"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="13"/>
+      <c r="C999" s="14"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="13"/>
+      <c r="C1000" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7131,862 +7082,859 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1001"/>
+  <dimension ref="A1:Q1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="4" style="0" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="51.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="15" width="10.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16379" min="18" style="16" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="16" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="15" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="15" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="15" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="14" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="15" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="14" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="15" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>120</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>126</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>129</v>
+        <v>59</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>132</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>135</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>138</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>141</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>147</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>133</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>150</v>
+        <v>61</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>153</v>
+        <v>61</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>156</v>
+        <v>62</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>159</v>
+        <v>62</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>162</v>
+        <v>62</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>165</v>
+        <v>145</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>167</v>
+      <c r="B38" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>169</v>
+      <c r="B39" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>171</v>
+      <c r="B40" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>75</v>
+        <v>154</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>175</v>
+        <v>154</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>181</v>
+        <v>161</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>187</v>
+        <v>164</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>190</v>
+        <v>164</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>193</v>
+        <v>171</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>196</v>
+        <v>171</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>202</v>
+        <v>178</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>205</v>
+        <v>181</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>208</v>
+        <v>181</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>211</v>
+        <v>181</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>214</v>
+        <v>188</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>217</v>
+        <v>188</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>220</v>
+        <v>188</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>223</v>
+        <v>195</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>77</v>
+        <v>198</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>227</v>
+        <v>198</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>230</v>
+        <v>198</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>233</v>
+        <v>205</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>236</v>
+        <v>205</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>239</v>
+        <v>205</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>210</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>242</v>
+        <v>212</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>245</v>
+        <v>215</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>248</v>
+        <v>215</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>251</v>
+        <v>215</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>254</v>
+        <v>222</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>257</v>
+        <v>222</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>260</v>
+        <v>222</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>263</v>
+        <v>229</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>266</v>
+        <v>232</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>269</v>
+        <v>232</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>272</v>
+        <v>232</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Metabolites/HPLC/Data/information_HPLC.xlsx
+++ b/Metabolites/HPLC/Data/information_HPLC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Plaque" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="236">
   <si>
     <t xml:space="preserve">Cette feuille décrit les informations du plan de plaque. Elle n'est pas utilisée pour les analyses, mais est utile à l'expérimentateur pour décrire l'organisation des échantillons dans la plaque.</t>
   </si>
@@ -150,13 +150,16 @@
     <t xml:space="preserve">STD12-GS2-0.06</t>
   </si>
   <si>
+    <t xml:space="preserve">Cette fiche définit les noms des solutions étalons et la concentration de chaque composé dans les standards. Les mêmes noms d'échantillons doivent être utilisés pour les standards de la fiche « Samples ».</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Compound</t>
   </si>
   <si>
-    <t xml:space="preserve">mM</t>
+    <t xml:space="preserve">Concentration_mM</t>
   </si>
   <si>
     <t xml:space="preserve">STD1_100</t>
@@ -213,19 +216,37 @@
     <t xml:space="preserve">STD2_06</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12_06</t>
+    <t xml:space="preserve">STD12_100_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_50_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_25_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_12_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_06_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_100_GS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_50_GS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_25_GS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_12_GS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD12_06_GS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette feuille fait la correspondance entre les noms de fichiers et les descriptions des échantillons. Les descriptions des standards doivent être les mêmes que sur la feuille "Standards".</t>
   </si>
   <si>
     <t xml:space="preserve">File</t>
@@ -486,9 +507,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\F4.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_100_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">B2.2.lcd</t>
   </si>
   <si>
@@ -516,9 +534,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc7.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_50_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">B5.2.lcd</t>
   </si>
   <si>
@@ -537,9 +552,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\B7.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_25_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">B8.2.lcd</t>
   </si>
   <si>
@@ -567,9 +579,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc8.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_12_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">C2.2.lcd</t>
   </si>
   <si>
@@ -588,9 +597,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\C4.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_06_water</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5.2.lcd</t>
   </si>
   <si>
@@ -618,9 +624,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc9.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_100_GS2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D2.2.lcd</t>
   </si>
   <si>
@@ -639,9 +642,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D4.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_50_GS2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D5.2.lcd</t>
   </si>
   <si>
@@ -669,9 +669,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc10.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_25_GS2</t>
-  </si>
-  <si>
     <t xml:space="preserve">D8.2.lcd</t>
   </si>
   <si>
@@ -690,9 +687,6 @@
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\D10.2.lcd</t>
   </si>
   <si>
-    <t xml:space="preserve">STD12_12_GS2</t>
-  </si>
-  <si>
     <t xml:space="preserve">E2.2.lcd</t>
   </si>
   <si>
@@ -718,9 +712,6 @@
   </si>
   <si>
     <t xml:space="preserve">C:\LabSolutions\Data\Loïc\2024-11-19\blanc11.lcd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STD12_06_GS2</t>
   </si>
   <si>
     <t xml:space="preserve">E5.2.lcd</t>
@@ -748,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,14 +796,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -894,7 +877,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -939,39 +922,27 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3291,1099 +3262,1388 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I90" activeCellId="0" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C6" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <v>342.5</v>
       </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="14" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <v>27.775</v>
       </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <f aca="false">C2/2</f>
-        <v>25</v>
-      </c>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <f aca="false">C3/2</f>
-        <v>25</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="14" t="n">
         <f aca="false">C4/2</f>
         <v>25</v>
       </c>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>49</v>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="14" t="n">
         <f aca="false">C5/2</f>
-        <v>171.25</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>50</v>
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="n">
         <f aca="false">C6/2</f>
-        <v>13.8875</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>46</v>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="14" t="n">
         <f aca="false">C7/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>171.25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>47</v>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="14" t="n">
         <f aca="false">C8/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>13.8875</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>48</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="14" t="n">
         <f aca="false">C9/2</f>
         <v>12.5</v>
       </c>
-      <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>49</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="14" t="n">
         <f aca="false">C10/2</f>
-        <v>85.625</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>50</v>
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="14" t="n">
         <f aca="false">C11/2</f>
-        <v>6.94375</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>46</v>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="14" t="n">
         <f aca="false">C12/2</f>
-        <v>6.25</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>85.625</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="14" t="n">
         <f aca="false">C13/2</f>
-        <v>6.25</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>6.94375</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="14" t="n">
         <f aca="false">C14/2</f>
         <v>6.25</v>
       </c>
-      <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="14" t="n">
         <f aca="false">C15/2</f>
-        <v>42.8125</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="14" t="n">
         <f aca="false">C16/2</f>
-        <v>3.471875</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>46</v>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="14" t="n">
         <f aca="false">C17/2</f>
-        <v>3.125</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>42.8125</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>47</v>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="14" t="n">
         <f aca="false">C18/2</f>
-        <v>3.125</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>3.471875</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="14" t="n">
         <f aca="false">C19/2</f>
         <v>3.125</v>
       </c>
-      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>49</v>
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="14" t="n">
         <f aca="false">C20/2</f>
-        <v>21.40625</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>3.125</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>50</v>
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="14" t="n">
         <f aca="false">C21/2</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="14" t="n">
+        <f aca="false">C22/2</f>
+        <v>21.40625</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="14" t="n">
+        <f aca="false">C23/2</f>
         <v>1.7359375</v>
       </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C29" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="D29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="14" t="n">
+      <c r="C31" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C34" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+      <c r="C35" s="1" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C37" s="1" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="C39" s="1" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="13" t="s">
+      <c r="C41" s="1" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="13" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="13" t="s">
+      <c r="C42" s="1" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="14" t="n">
+        <v>27.775</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C37" s="13" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="13" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="13" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="13" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="13" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13" t="n">
-        <v>342.5</v>
-      </c>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="14" t="n">
-        <v>27.775</v>
-      </c>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="14" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="14" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C49" s="14" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>46</v>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C50" s="14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C51" s="14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C52" s="14" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="14" t="n">
+      <c r="C54" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="14" t="n">
         <v>171.25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="14" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="14" t="n">
         <v>13.8875</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="13" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C56" s="14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C57" s="14" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>46</v>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C58" s="14" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C59" s="14" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C60" s="14" t="n">
         <v>12.5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="14" t="n">
+      <c r="C62" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="14" t="n">
         <v>85.625</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="14" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="14" t="n">
         <v>6.94375</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="14" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="13" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C64" s="14" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C65" s="14" t="n">
         <v>12.5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>46</v>
+      <c r="B66" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="14" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="14" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C67" s="14" t="n">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C68" s="14" t="n">
         <v>6.25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="14" t="n">
+      <c r="C70" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="14" t="n">
         <v>42.8125</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="14" t="n">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="14" t="n">
         <v>3.471875</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="14" t="n">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="13" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C72" s="14" t="n">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C73" s="14" t="n">
         <v>6.25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>46</v>
+      <c r="B74" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C74" s="14" t="n">
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="14" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C75" s="14" t="n">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="C76" s="14" t="n">
         <v>3.125</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="14" t="n">
+      <c r="C78" s="14" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="14" t="n">
         <v>21.40625</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="14" t="n">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="14" t="n">
         <v>1.7359375</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="14" t="n">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="13" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C80" s="14" t="n">
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="C81" s="14" t="n">
         <v>3.125</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="14"/>
+      <c r="A82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="14"/>
+      <c r="A83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="14"/>
+      <c r="A84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="14"/>
+      <c r="A85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="14"/>
+      <c r="A86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="14"/>
+      <c r="A87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>342.5</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="14"/>
+      <c r="A88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="14" t="n">
+        <v>27.775</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="14"/>
+      <c r="A89" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="14" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="14"/>
+      <c r="A90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="14" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="14"/>
+      <c r="A91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="14" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="14"/>
+      <c r="A92" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="14"/>
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="14"/>
+      <c r="A94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="14"/>
+      <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="14" t="n">
+        <v>171.25</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="14"/>
+      <c r="A96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="14" t="n">
+        <v>13.8875</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="14"/>
+      <c r="A97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="14"/>
+      <c r="A98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="14"/>
+      <c r="A99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="14" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="14"/>
+      <c r="A100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="14"/>
+      <c r="A101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="14"/>
+      <c r="A102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="14"/>
+      <c r="A103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="14" t="n">
+        <v>85.625</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="14"/>
+      <c r="A104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="14" t="n">
+        <v>6.94375</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="14"/>
+      <c r="A105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="14"/>
+      <c r="A106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="14"/>
+      <c r="A107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="14" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="14"/>
+      <c r="A108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="14"/>
+      <c r="A109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="14"/>
+      <c r="A110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="14"/>
+      <c r="A111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C111" s="14" t="n">
+        <v>42.8125</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="14"/>
+      <c r="A112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="14" t="n">
+        <v>3.471875</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="14"/>
+      <c r="A113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="14"/>
+      <c r="A114" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="14"/>
+      <c r="A115" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="14" t="n">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="14"/>
+      <c r="A116" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="14"/>
+      <c r="A117" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="14"/>
+      <c r="A118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="14"/>
+      <c r="A119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="14" t="n">
+        <v>21.40625</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="14"/>
+      <c r="A120" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="14" t="n">
+        <v>1.7359375</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="14"/>
+      <c r="A121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="14"/>
+      <c r="A122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="14"/>
+      <c r="A123" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="14" t="n">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C124" s="14"/>
@@ -4413,22 +4673,13 @@
       <c r="C132" s="14"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
       <c r="C134" s="14"/>
-      <c r="D134" s="13"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
       <c r="C135" s="14"/>
-      <c r="D135" s="13"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C136" s="14"/>
@@ -4437,96 +4688,55 @@
       <c r="C137" s="14"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
       <c r="C138" s="14"/>
-      <c r="D138" s="13"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
       <c r="C139" s="14"/>
-      <c r="D139" s="13"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
       <c r="C140" s="14"/>
-      <c r="D140" s="13"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13"/>
-      <c r="B141" s="13"/>
       <c r="C141" s="14"/>
-      <c r="D141" s="13"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13"/>
       <c r="C142" s="14"/>
-      <c r="D142" s="13"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
       <c r="C143" s="14"/>
-      <c r="D143" s="13"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
       <c r="C144" s="14"/>
-      <c r="D144" s="13"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
       <c r="C145" s="14"/>
-      <c r="D145" s="13"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C146" s="14"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
       <c r="C147" s="14"/>
-      <c r="D147" s="13"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="13"/>
       <c r="C148" s="14"/>
-      <c r="D148" s="13"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="13"/>
       <c r="C149" s="14"/>
-      <c r="D149" s="13"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="13"/>
       <c r="C150" s="14"/>
-      <c r="D150" s="13"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="13"/>
       <c r="C151" s="14"/>
-      <c r="D151" s="13"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="13"/>
       <c r="C152" s="14"/>
-      <c r="D152" s="13"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="13"/>
       <c r="C153" s="14"/>
-      <c r="D153" s="13"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="13"/>
       <c r="C154" s="14"/>
-      <c r="D154" s="13"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C155" s="14"/>
@@ -7066,7 +7276,16 @@
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1000" s="14"/>
     </row>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="14"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7082,10 +7301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1001"/>
+  <dimension ref="A1:Q1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7094,513 +7313,531 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="10.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="51.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="4" style="15" width="10.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16379" min="18" style="16" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="16" width="10.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16379" min="18" style="15" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="15" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>72</v>
-      </c>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>74</v>
-      </c>
+      <c r="A3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>86</v>
+        <v>52</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>88</v>
+      <c r="B10" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>92</v>
+        <v>53</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>94</v>
+      <c r="B13" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>96</v>
+      <c r="B14" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>103</v>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>107</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>109</v>
+      <c r="B20" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>111</v>
+      <c r="B21" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>116</v>
+        <v>56</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>124</v>
+      <c r="B27" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>126</v>
+      <c r="B28" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>131</v>
+        <v>61</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>133</v>
+      <c r="B31" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>137</v>
+        <v>62</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>139</v>
+      <c r="B34" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>141</v>
+      <c r="B35" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>143</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>146</v>
+        <v>63</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>148</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>152</v>
+        <v>29</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>155</v>
+        <v>30</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>159</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>162</v>
+        <v>64</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>165</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -7609,31 +7846,31 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="19" t="s">
         <v>167</v>
       </c>
+      <c r="B46" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="C46" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>172</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -7642,9 +7879,9 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -7653,9 +7890,9 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B50" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>176</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -7664,281 +7901,301 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>191</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>193</v>
+        <v>68</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>196</v>
+        <v>68</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>193</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>199</v>
+        <v>68</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>201</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>203</v>
+        <v>69</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>206</v>
+        <v>69</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>210</v>
+        <v>70</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>213</v>
+        <v>70</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>216</v>
+        <v>70</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>220</v>
-      </c>
       <c r="C68" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>223</v>
+        <v>71</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>225</v>
+        <v>71</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>230</v>
+        <v>72</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>233</v>
+        <v>72</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>235</v>
+        <v>227</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C76" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8863,7 +9120,12 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
